--- a/biology/Histoire de la zoologie et de la botanique/Médaille_Brewster/Médaille_Brewster.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Médaille_Brewster/Médaille_Brewster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Brewster</t>
+          <t>Médaille_Brewster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médaille Brewster a été fondé en 1919 grâce à un fonds de 7 250 dollars rassemblé par les amis de William Brewster (1851-1919). Elle récompense tous les deux ans, puis tous les ans, un auteur pour un travail important sur la faune aviaire du Nouveau Monde publié moins de six ans auparavant. Le prix est attribué par l’Union américaine d'ornithologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Brewster</t>
+          <t>Médaille_Brewster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1919 : Robert Ridgway (1850-1929)
@@ -614,7 +628,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Brewster</t>
+          <t>Médaille_Brewster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -632,7 +646,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Site officiel de l’Union américaine d'ornithologie
  Portail de l’histoire de la zoologie et de la botanique   Portail de l'ornithologie   Portail des récompenses et distinctions                   </t>
